--- a/F+/Assets/Resources/DataTable/LevelTable/LevelTable.xlsx
+++ b/F+/Assets/Resources/DataTable/LevelTable/LevelTable.xlsx
@@ -30,11 +30,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BasicAtk</t>
+    <t>Xp</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Xp</t>
+    <t>Atk</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
@@ -414,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
